--- a/static/contact/U18G.xlsx
+++ b/static/contact/U18G.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53EC12CD-259E-4325-98C3-2CF50DE29057}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974B50E3-172D-40E0-A9B0-50704B13775B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="U18G" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="82">
   <si>
     <t>Active Players</t>
   </si>
@@ -250,118 +250,28 @@
     <t>Turin, Dennis</t>
   </si>
   <si>
-    <t>Historical Players</t>
-  </si>
-  <si>
-    <t>Asche, Aliesha</t>
-  </si>
-  <si>
-    <t>Barton, Amber</t>
-  </si>
-  <si>
-    <t>Barton, Coralie</t>
-  </si>
-  <si>
-    <t>0422 667 794</t>
-  </si>
-  <si>
-    <t>coraliebarton@yahoo.com</t>
-  </si>
-  <si>
-    <t>Barton, Duane</t>
-  </si>
-  <si>
-    <t>0418 744 232</t>
-  </si>
-  <si>
-    <t>Bellingham, Montana</t>
-  </si>
-  <si>
-    <t>Stimson, Samantha</t>
-  </si>
-  <si>
-    <t>0408 504 535</t>
-  </si>
-  <si>
-    <t>samstimson@optusnet.com.au</t>
-  </si>
-  <si>
-    <t>Butler, Melissa</t>
-  </si>
-  <si>
-    <t>Carpenter, Tracey</t>
-  </si>
-  <si>
-    <t>0407 093 132</t>
-  </si>
-  <si>
-    <t>traceycarpenter@y7mail.com</t>
-  </si>
-  <si>
-    <t>Elliott, Brooke</t>
-  </si>
-  <si>
-    <t>Hager, Anne</t>
-  </si>
-  <si>
-    <t>Hager, Shane</t>
-  </si>
-  <si>
-    <t>0408 769 658</t>
-  </si>
-  <si>
-    <t>s.hager@vmia.vic.gov.au</t>
-  </si>
-  <si>
-    <t>Hager, Laisa</t>
-  </si>
-  <si>
-    <t>Harris-Wright, Alisha</t>
-  </si>
-  <si>
-    <t>Harrison, Taniesha</t>
-  </si>
-  <si>
-    <t>Hastas, Emma</t>
-  </si>
-  <si>
-    <t>Hastas, Wilta</t>
-  </si>
-  <si>
-    <t>0468 391 028</t>
-  </si>
-  <si>
-    <t>wilta28@gmail.com</t>
-  </si>
-  <si>
-    <t>Huntington, Liana</t>
-  </si>
-  <si>
-    <t>N/a, N/a</t>
-  </si>
-  <si>
-    <t>Jackson, Alayah</t>
-  </si>
-  <si>
-    <t>Kudeweh, Lily</t>
-  </si>
-  <si>
-    <t>Kudeweh, Nik</t>
-  </si>
-  <si>
-    <t>0404 004 269</t>
-  </si>
-  <si>
-    <t>nkudeweh@gmail.com</t>
-  </si>
-  <si>
-    <t>Smith, Paisley</t>
+    <t>Deane, Paige</t>
+  </si>
+  <si>
+    <t>deane, paul</t>
+  </si>
+  <si>
+    <t>0432 045 437</t>
+  </si>
+  <si>
+    <t>pjdeane00@gmail.com</t>
+  </si>
+  <si>
+    <t>deane, mary</t>
+  </si>
+  <si>
+    <t>0400 671 897</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -854,6 +764,7 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -861,7 +772,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1216,8 +1126,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1235,37 +1145,37 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1294,192 +1204,192 @@
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>26</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G10" s="2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -1488,492 +1398,176 @@
         <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="G17" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>71</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>72</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>73</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>74</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" t="s">
         <v>75</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>78</v>
-      </c>
-      <c r="B24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" t="s">
-        <v>82</v>
-      </c>
-      <c r="F24" t="s">
-        <v>83</v>
-      </c>
-      <c r="G24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>92</v>
-      </c>
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" t="s">
-        <v>95</v>
-      </c>
-      <c r="D28" t="s">
-        <v>96</v>
-      </c>
-      <c r="E28" t="s">
-        <v>97</v>
-      </c>
-      <c r="F28" t="s">
-        <v>95</v>
-      </c>
-      <c r="G28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>98</v>
-      </c>
-      <c r="B29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>99</v>
-      </c>
-      <c r="B30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>100</v>
-      </c>
-      <c r="B31" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" t="s">
-        <v>102</v>
-      </c>
-      <c r="D31" t="s">
-        <v>103</v>
-      </c>
-      <c r="E31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>104</v>
-      </c>
-      <c r="B32" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>106</v>
-      </c>
-      <c r="B33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>107</v>
-      </c>
-      <c r="B34" t="s">
-        <v>108</v>
-      </c>
-      <c r="C34" t="s">
-        <v>109</v>
-      </c>
-      <c r="D34" t="s">
-        <v>110</v>
-      </c>
-      <c r="E34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>111</v>
-      </c>
-      <c r="B35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="4">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/static/contact/U18G.xlsx
+++ b/static/contact/U18G.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974B50E3-172D-40E0-A9B0-50704B13775B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7485A13-D9A5-439A-AFC4-F5C6D77A5435}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="82">
-  <si>
-    <t>Active Players</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="76">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -250,22 +247,7 @@
     <t>Turin, Dennis</t>
   </si>
   <si>
-    <t>Deane, Paige</t>
-  </si>
-  <si>
-    <t>deane, paul</t>
-  </si>
-  <si>
-    <t>0432 045 437</t>
-  </si>
-  <si>
-    <t>pjdeane00@gmail.com</t>
-  </si>
-  <si>
-    <t>deane, mary</t>
-  </si>
-  <si>
-    <t>0400 671 897</t>
+    <t>Registered Players</t>
   </si>
 </sst>
 </file>
@@ -1127,7 +1109,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1143,431 +1125,408 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>6</v>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G17" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="G18" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F19" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" t="s">
         <v>73</v>
-      </c>
-      <c r="D20" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/static/contact/U18G.xlsx
+++ b/static/contact/U18G.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7485A13-D9A5-439A-AFC4-F5C6D77A5435}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9A286F-67CD-47DB-A1A4-AE571BD5506E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="U18G" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="81">
   <si>
     <t>Guardian 1</t>
   </si>
@@ -133,15 +133,6 @@
     <t>Cathro-Turner, Emily</t>
   </si>
   <si>
-    <t>Turner, Shane</t>
-  </si>
-  <si>
-    <t>0405 971 179</t>
-  </si>
-  <si>
-    <t>shaneturnerstud@gmail.com</t>
-  </si>
-  <si>
     <t>De Losa, Isabella</t>
   </si>
   <si>
@@ -217,18 +208,9 @@
     <t>Prior, Emily</t>
   </si>
   <si>
-    <t>Prior, Tracey</t>
-  </si>
-  <si>
     <t>0438 361 434</t>
   </si>
   <si>
-    <t>trace.1973@bigpond.com</t>
-  </si>
-  <si>
-    <t>Bird, Martin</t>
-  </si>
-  <si>
     <t>0430 219 376</t>
   </si>
   <si>
@@ -248,6 +230,39 @@
   </si>
   <si>
     <t>Registered Players</t>
+  </si>
+  <si>
+    <t>Cathro, Brooke</t>
+  </si>
+  <si>
+    <t>0450 257 342</t>
+  </si>
+  <si>
+    <t>smokin876@gmail.com</t>
+  </si>
+  <si>
+    <t>Hoorn, Lily</t>
+  </si>
+  <si>
+    <t>Hoorn, Robert</t>
+  </si>
+  <si>
+    <t>0418 591 966</t>
+  </si>
+  <si>
+    <t>robert.hoorn@bigpond.com</t>
+  </si>
+  <si>
+    <t>0428 266 669</t>
+  </si>
+  <si>
+    <t>Bird, Tracey</t>
+  </si>
+  <si>
+    <t>traceybird462@gmail.com</t>
+  </si>
+  <si>
+    <t>Prior, Martin</t>
   </si>
 </sst>
 </file>
@@ -1109,23 +1124,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="5" width="30.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="4" max="5" width="29.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1138,7 +1153,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1161,7 +1176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1184,286 +1199,286 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F6" t="s">
         <v>10</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E8" t="s">
         <v>19</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F8" t="s">
         <v>20</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C12" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E12" t="s">
         <v>25</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F12" t="s">
         <v>26</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C16" t="s">
         <v>30</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D16" t="s">
         <v>31</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E16" t="s">
         <v>10</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F16" t="s">
         <v>10</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>37</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B17" t="s">
         <v>38</v>
       </c>
-      <c r="D12" t="s">
+      <c r="C17" t="s">
         <v>39</v>
       </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="D17" t="s">
         <v>40</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" t="s">
-        <v>63</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -1472,61 +1487,84 @@
         <v>10</v>
       </c>
       <c r="G17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="G18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>73</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/static/contact/U18G.xlsx
+++ b/static/contact/U18G.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9A286F-67CD-47DB-A1A4-AE571BD5506E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FCAD739-6E1D-48EE-9752-D19276CCBC78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="U18G" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="110">
+  <si>
+    <t>Registered Players</t>
+  </si>
   <si>
     <t>Guardian 1</t>
   </si>
@@ -55,6 +58,108 @@
     <t/>
   </si>
   <si>
+    <t>Barnett, Scarlett</t>
+  </si>
+  <si>
+    <t>Barnett, Jason</t>
+  </si>
+  <si>
+    <t>0407 483 434</t>
+  </si>
+  <si>
+    <t>jason777@bigpond.net.au</t>
+  </si>
+  <si>
+    <t>Barnett, Samantha</t>
+  </si>
+  <si>
+    <t>0417 778 889</t>
+  </si>
+  <si>
+    <t>samanthabarnett@outlook.com.au</t>
+  </si>
+  <si>
+    <t>Blasius, Chloe</t>
+  </si>
+  <si>
+    <t>Maggs, Mandy</t>
+  </si>
+  <si>
+    <t>0422 067 150</t>
+  </si>
+  <si>
+    <t>mandymaggs9@gmail.com</t>
+  </si>
+  <si>
+    <t>Cathro-Turner, Emily</t>
+  </si>
+  <si>
+    <t>Cathro, Brooke</t>
+  </si>
+  <si>
+    <t>0450 257 342</t>
+  </si>
+  <si>
+    <t>smokin876@gmail.com</t>
+  </si>
+  <si>
+    <t>Turner, Shane</t>
+  </si>
+  <si>
+    <t>shaneturnerstud@gmail.com</t>
+  </si>
+  <si>
+    <t>Crawford, Jess</t>
+  </si>
+  <si>
+    <t>Hurdle, Tom</t>
+  </si>
+  <si>
+    <t>0466 647 100</t>
+  </si>
+  <si>
+    <t>tom.hurdle96@gmail.com</t>
+  </si>
+  <si>
+    <t>Dannefaerd, Tahlia</t>
+  </si>
+  <si>
+    <t>Dannefaerd, Helen</t>
+  </si>
+  <si>
+    <t>0421 542 211</t>
+  </si>
+  <si>
+    <t>helen_dann1@hotmail.com</t>
+  </si>
+  <si>
+    <t>Dannefaerd, Mervyn</t>
+  </si>
+  <si>
+    <t>0417 303 275</t>
+  </si>
+  <si>
+    <t>Deane, Paige</t>
+  </si>
+  <si>
+    <t>deane, paul</t>
+  </si>
+  <si>
+    <t>0432 045 437</t>
+  </si>
+  <si>
+    <t>pjdeane00@gmail.com</t>
+  </si>
+  <si>
+    <t>deane, mary</t>
+  </si>
+  <si>
+    <t>0400 671 897</t>
+  </si>
+  <si>
+    <t>marydeane02@gmail.com</t>
+  </si>
+  <si>
     <t>Foster-Davies, Jaslyn</t>
   </si>
   <si>
@@ -67,6 +172,60 @@
     <t>mckellym@hotmail.com</t>
   </si>
   <si>
+    <t>Hoorn, Lily</t>
+  </si>
+  <si>
+    <t>Hoorn, Robert</t>
+  </si>
+  <si>
+    <t>0418 591 966</t>
+  </si>
+  <si>
+    <t>robert.hoorn@bigpond.com</t>
+  </si>
+  <si>
+    <t>0428 266 669</t>
+  </si>
+  <si>
+    <t>mel_owens@bigpond.com</t>
+  </si>
+  <si>
+    <t>Kleinert, Viveca</t>
+  </si>
+  <si>
+    <t>kleinert, martin</t>
+  </si>
+  <si>
+    <t>9753 6417</t>
+  </si>
+  <si>
+    <t>mkleinert12@gmail.com</t>
+  </si>
+  <si>
+    <t>kleinert, narelle</t>
+  </si>
+  <si>
+    <t>narellek@hotmail.com</t>
+  </si>
+  <si>
+    <t>Koch, Olivia</t>
+  </si>
+  <si>
+    <t>KOCH, LUCINDA</t>
+  </si>
+  <si>
+    <t>0414 616 938</t>
+  </si>
+  <si>
+    <t>kocheandl@optusnet.com.au</t>
+  </si>
+  <si>
+    <t>KOCH, HERSCHEL</t>
+  </si>
+  <si>
+    <t>0410 616 951</t>
+  </si>
+  <si>
     <t>Maloney, Sienna</t>
   </si>
   <si>
@@ -85,6 +244,75 @@
     <t>0406 557 070</t>
   </si>
   <si>
+    <t>craig.maloney@hotmail.com</t>
+  </si>
+  <si>
+    <t>Marotti, Lillie</t>
+  </si>
+  <si>
+    <t>Victor, Michelle</t>
+  </si>
+  <si>
+    <t>0408 318 985</t>
+  </si>
+  <si>
+    <t>michelleandmarkus@gmail.com</t>
+  </si>
+  <si>
+    <t>Marotti, Markus</t>
+  </si>
+  <si>
+    <t>0400 377 283</t>
+  </si>
+  <si>
+    <t>Mcmanus, Rhian</t>
+  </si>
+  <si>
+    <t>Bolger, Sallie</t>
+  </si>
+  <si>
+    <t>0450 672 378</t>
+  </si>
+  <si>
+    <t>salliw79@gmail.com</t>
+  </si>
+  <si>
+    <t>Peterson, Chenoa</t>
+  </si>
+  <si>
+    <t>Penrose, Rachel</t>
+  </si>
+  <si>
+    <t>0416 391 178</t>
+  </si>
+  <si>
+    <t>rachel_mark_chenoa@live.com.au</t>
+  </si>
+  <si>
+    <t>Peterson, Mark</t>
+  </si>
+  <si>
+    <t>0422 169 913</t>
+  </si>
+  <si>
+    <t>Prior, Emily</t>
+  </si>
+  <si>
+    <t>Bird, Tracey</t>
+  </si>
+  <si>
+    <t>0438 361 434</t>
+  </si>
+  <si>
+    <t>traceybird462@gmail.com</t>
+  </si>
+  <si>
+    <t>Prior, Martin</t>
+  </si>
+  <si>
+    <t>0430 219 376</t>
+  </si>
+  <si>
     <t>Robertson, Darcy</t>
   </si>
   <si>
@@ -103,172 +331,31 @@
     <t>0425 807 059</t>
   </si>
   <si>
-    <t>Recent Players</t>
-  </si>
-  <si>
-    <t>Barlow, Elise</t>
-  </si>
-  <si>
-    <t>Barlow, Ben</t>
-  </si>
-  <si>
-    <t>0413 539 551</t>
-  </si>
-  <si>
-    <t>benny190271@gmail.com</t>
-  </si>
-  <si>
-    <t>Blasius, Chloe</t>
-  </si>
-  <si>
-    <t>Maggs, Mandy</t>
-  </si>
-  <si>
-    <t>0422 067 150</t>
-  </si>
-  <si>
-    <t>mandymaggs9@gmail.com</t>
-  </si>
-  <si>
-    <t>Cathro-Turner, Emily</t>
-  </si>
-  <si>
-    <t>De Losa, Isabella</t>
-  </si>
-  <si>
-    <t>Tucker, Angela</t>
-  </si>
-  <si>
-    <t>0418 825 245</t>
-  </si>
-  <si>
-    <t>angela@valleywindows.com.au</t>
-  </si>
-  <si>
-    <t>Martin, Alanna</t>
-  </si>
-  <si>
-    <t>Martin, Fiona</t>
-  </si>
-  <si>
-    <t>0448 174 131</t>
-  </si>
-  <si>
-    <t>fmartin1@bigpond.net.au</t>
-  </si>
-  <si>
-    <t>Martin, Anthony</t>
-  </si>
-  <si>
-    <t>0448 174 111</t>
-  </si>
-  <si>
-    <t>Mcmanus, Rhian</t>
-  </si>
-  <si>
-    <t>Bolger, Sallie</t>
-  </si>
-  <si>
-    <t>0450 672 378</t>
-  </si>
-  <si>
-    <t>salliw79@gmail.com</t>
-  </si>
-  <si>
-    <t>Peterson, Chenoa</t>
-  </si>
-  <si>
-    <t>Penrose, Rachel</t>
-  </si>
-  <si>
-    <t>0416 391 178</t>
-  </si>
-  <si>
-    <t>rachel_mark_chenoa@live.com.au</t>
-  </si>
-  <si>
-    <t>Peterson, Mark</t>
-  </si>
-  <si>
-    <t>0422 169 913</t>
-  </si>
-  <si>
-    <t>Pottenger, Jordan</t>
-  </si>
-  <si>
-    <t>Pottenger, Rebecca</t>
-  </si>
-  <si>
-    <t>0401 384 811</t>
-  </si>
-  <si>
-    <t>pottenger008@gmail.com</t>
-  </si>
-  <si>
-    <t>Prior, Emily</t>
-  </si>
-  <si>
-    <t>0438 361 434</t>
-  </si>
-  <si>
-    <t>0430 219 376</t>
-  </si>
-  <si>
-    <t>Turin, Louizana</t>
-  </si>
-  <si>
-    <t>Turin, Melissa</t>
-  </si>
-  <si>
-    <t>0449 167 313</t>
-  </si>
-  <si>
-    <t>melissa.turin@gmail.com</t>
-  </si>
-  <si>
-    <t>Turin, Dennis</t>
-  </si>
-  <si>
-    <t>Registered Players</t>
-  </si>
-  <si>
-    <t>Cathro, Brooke</t>
-  </si>
-  <si>
-    <t>0450 257 342</t>
-  </si>
-  <si>
-    <t>smokin876@gmail.com</t>
-  </si>
-  <si>
-    <t>Hoorn, Lily</t>
-  </si>
-  <si>
-    <t>Hoorn, Robert</t>
-  </si>
-  <si>
-    <t>0418 591 966</t>
-  </si>
-  <si>
-    <t>robert.hoorn@bigpond.com</t>
-  </si>
-  <si>
-    <t>0428 266 669</t>
-  </si>
-  <si>
-    <t>Bird, Tracey</t>
-  </si>
-  <si>
-    <t>traceybird462@gmail.com</t>
-  </si>
-  <si>
-    <t>Prior, Martin</t>
+    <t>andrewcrobertson@gmail.com</t>
+  </si>
+  <si>
+    <t>Thomas, Jocelyn</t>
+  </si>
+  <si>
+    <t>Thomas, Adrian</t>
+  </si>
+  <si>
+    <t>0428 389 864</t>
+  </si>
+  <si>
+    <t>adrian-thomas@hotmail.com</t>
+  </si>
+  <si>
+    <t>Thomas, Dianne</t>
+  </si>
+  <si>
+    <t>dianne-thomas@hotmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -761,7 +848,6 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -769,6 +855,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1123,448 +1210,477 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
-    <col min="4" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="5" width="30.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C14" t="s">
         <v>70</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D14" t="s">
         <v>71</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E14" t="s">
         <v>72</v>
       </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="F14" t="s">
         <v>73</v>
       </c>
-      <c r="B7" t="s">
+      <c r="G14" t="s">
         <v>74</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>75</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B15" t="s">
         <v>76</v>
       </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="C15" t="s">
         <v>77</v>
       </c>
-      <c r="G7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="D15" t="s">
         <v>78</v>
       </c>
-      <c r="C11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E15" t="s">
         <v>79</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F15" t="s">
         <v>80</v>
       </c>
-      <c r="F11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="G17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="G18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="F19" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="G19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="F20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/static/contact/U18G.xlsx
+++ b/static/contact/U18G.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\bjfc\static\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FCAD739-6E1D-48EE-9752-D19276CCBC78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C29E89-031F-4F7C-A726-4A5EE90B5D7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="U18G" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="139">
   <si>
     <t>Registered Players</t>
   </si>
@@ -350,12 +350,99 @@
   </si>
   <si>
     <t>dianne-thomas@hotmail.com</t>
+  </si>
+  <si>
+    <t>Butler, Melissa</t>
+  </si>
+  <si>
+    <t>Carpenter, Tracey</t>
+  </si>
+  <si>
+    <t>0407 093 132</t>
+  </si>
+  <si>
+    <t>traceycarpenter@y7mail.com</t>
+  </si>
+  <si>
+    <t>Crane, Isabella</t>
+  </si>
+  <si>
+    <t>Crane, Amie</t>
+  </si>
+  <si>
+    <t>0408 267 715</t>
+  </si>
+  <si>
+    <t>amie.crane@bigpond.com.au</t>
+  </si>
+  <si>
+    <t>0411 517 108</t>
+  </si>
+  <si>
+    <t>t.crane@optusnet.com</t>
+  </si>
+  <si>
+    <t>Dybing, Kaiyla</t>
+  </si>
+  <si>
+    <t>Dybing, Christopher</t>
+  </si>
+  <si>
+    <t>0410 776 876</t>
+  </si>
+  <si>
+    <t>dybs.peacock@yahoo.com.au</t>
+  </si>
+  <si>
+    <t>Peacock, Kerrie</t>
+  </si>
+  <si>
+    <t>0418 596 416</t>
+  </si>
+  <si>
+    <t>Hall, Elizabeth</t>
+  </si>
+  <si>
+    <t>Hall, Suzanne</t>
+  </si>
+  <si>
+    <t>0415 232 537</t>
+  </si>
+  <si>
+    <t>ogley_hall@live.com.au</t>
+  </si>
+  <si>
+    <t>Ogley, Keith</t>
+  </si>
+  <si>
+    <t>0498 237 833</t>
+  </si>
+  <si>
+    <t>Hepburn, Chelsea</t>
+  </si>
+  <si>
+    <t>Hepburn, Anita</t>
+  </si>
+  <si>
+    <t>0401 021 701</t>
+  </si>
+  <si>
+    <t>anita.hepburn@yahoo.com.au</t>
+  </si>
+  <si>
+    <t>Hepburn, Matt</t>
+  </si>
+  <si>
+    <t>0417 788 551</t>
+  </si>
+  <si>
+    <t>matt.hep77@yahoo.com.au</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -848,6 +935,7 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -855,7 +943,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1210,8 +1297,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1229,37 +1316,37 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1334,114 +1421,114 @@
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
@@ -1449,231 +1536,346 @@
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G11" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="F14" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="G14" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="G15" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="G16" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="F17" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="G17" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="F18" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="G18" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="F19" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="G19" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>104</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B25" t="s">
         <v>105</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C25" t="s">
         <v>106</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D25" t="s">
         <v>107</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E25" t="s">
         <v>108</v>
       </c>
-      <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
         <v>109</v>
       </c>
     </row>
